--- a/全栈进阶/移动端.xlsx
+++ b/全栈进阶/移动端.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flutter" sheetId="1" r:id="rId1"/>
     <sheet name="uni-app" sheetId="2" r:id="rId2"/>
     <sheet name="ReactNative" sheetId="3" r:id="rId3"/>
+    <sheet name="微信小程序" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,6 +19,191 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t xml:space="preserve">uni-app 是使用 Vue 语法开发小程序、H5、App的统一框架 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dart语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flutter配置环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航和动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flutter版珠峰课堂项目实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多端调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 hbuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多端发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由和动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-app版珠峰课堂实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactNative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIExplorer项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS盒子模型和样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS元素浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexbox布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReactNative长度单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RN事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现一个Navigator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP架构之网络和container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP架构之命名空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠峰课堂项目实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面结构构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面样式定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号内的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序版珠峰课堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticket管理及第三方接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端&amp;服务端&amp;微信第三方的请求转发交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +526,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -353,12 +577,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -366,13 +638,164 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>